--- a/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20037</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12471</v>
+        <v>12525</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31989</v>
+        <v>30546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01942132727965584</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01208794930088462</v>
+        <v>0.01213985976909789</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03100548347084873</v>
+        <v>0.02960716487571981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -765,19 +765,19 @@
         <v>47998</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35397</v>
+        <v>35614</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61395</v>
+        <v>61870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03649689756738702</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02691579232413819</v>
+        <v>0.02708066753627131</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04668425100790615</v>
+        <v>0.0470451295950948</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -786,19 +786,19 @@
         <v>68035</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53433</v>
+        <v>53045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87454</v>
+        <v>85530</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02899008420888202</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02276803458383448</v>
+        <v>0.02260278456250135</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03726457075459323</v>
+        <v>0.03644470129200954</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1011686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>999734</v>
+        <v>1001177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1019252</v>
+        <v>1019198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9805786727203442</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9689945165291518</v>
+        <v>0.9703928351242808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9879120506991155</v>
+        <v>0.9878601402309022</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1244</v>
@@ -836,19 +836,19 @@
         <v>1267115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1253718</v>
+        <v>1253243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1279716</v>
+        <v>1279499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9635031024326129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9533157489920939</v>
+        <v>0.9529548704049051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.973084207675862</v>
+        <v>0.9729193324637286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2262</v>
@@ -857,19 +857,19 @@
         <v>2278800</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2259381</v>
+        <v>2261305</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2293402</v>
+        <v>2293790</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.971009915791118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9627354292454067</v>
+        <v>0.9635552987079899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9772319654161655</v>
+        <v>0.9773972154374986</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>35856</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25917</v>
+        <v>24607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50560</v>
+        <v>51149</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02118627438428142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01531388847801062</v>
+        <v>0.01453970176606891</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02987500008114109</v>
+        <v>0.03022259649133411</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -982,19 +982,19 @@
         <v>64905</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50693</v>
+        <v>48896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81803</v>
+        <v>82800</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04088077760527245</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03192917730457898</v>
+        <v>0.03079700778126384</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05152394209268739</v>
+        <v>0.05215197103120885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -1003,19 +1003,19 @@
         <v>100761</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83300</v>
+        <v>81353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120852</v>
+        <v>120167</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03071913692906093</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02539581934220211</v>
+        <v>0.02480235064166507</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03684427178107096</v>
+        <v>0.03663538127076925</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1656538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1641834</v>
+        <v>1641245</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1666477</v>
+        <v>1667787</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9788137256157186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9701249999188591</v>
+        <v>0.9697774035086654</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9846861115219896</v>
+        <v>0.9854602982339307</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1490</v>
@@ -1053,19 +1053,19 @@
         <v>1522768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1505870</v>
+        <v>1504873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1536980</v>
+        <v>1538777</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9591192223947276</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9484760579073128</v>
+        <v>0.9478480289687913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.968070822695422</v>
+        <v>0.9692029922187367</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3104</v>
@@ -1074,19 +1074,19 @@
         <v>3179306</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3159215</v>
+        <v>3159900</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3196767</v>
+        <v>3198714</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9692808630709391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9631557282189293</v>
+        <v>0.963364618729231</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.974604180657798</v>
+        <v>0.975197649358335</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>22320</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13591</v>
+        <v>14133</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33914</v>
+        <v>33691</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04047789540713252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02464869434250449</v>
+        <v>0.0256299174881181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06150358893205735</v>
+        <v>0.06109909581037981</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1199,19 +1199,19 @@
         <v>19374</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11405</v>
+        <v>11986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30879</v>
+        <v>30725</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04066587533750934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02393961526709444</v>
+        <v>0.02515946847901398</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06481515514531604</v>
+        <v>0.06449252524998761</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1220,19 +1220,19 @@
         <v>41694</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28957</v>
+        <v>29414</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55687</v>
+        <v>57024</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04056502726247135</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02817330289097679</v>
+        <v>0.02861772885433733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05417980650573181</v>
+        <v>0.05548052029404395</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>529088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>517494</v>
+        <v>517717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>537817</v>
+        <v>537275</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9595221045928675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9384964110679429</v>
+        <v>0.9389009041896205</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9753513056574956</v>
+        <v>0.9743700825118822</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>435</v>
@@ -1270,19 +1270,19 @@
         <v>457038</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>445533</v>
+        <v>445687</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>465007</v>
+        <v>464426</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9593341246624907</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9351848448546839</v>
+        <v>0.9355074747500132</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9760603847329056</v>
+        <v>0.9748405315209862</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>942</v>
@@ -1291,19 +1291,19 @@
         <v>986126</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>972133</v>
+        <v>970796</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>998863</v>
+        <v>998406</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9594349727375286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9458201934942682</v>
+        <v>0.9445194797059565</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9718266971090233</v>
+        <v>0.9713822711456629</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>78213</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63052</v>
+        <v>62417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101035</v>
+        <v>100813</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02387793940796142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01924956398251143</v>
+        <v>0.01905542058184682</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0308453166015012</v>
+        <v>0.03077756683363266</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -1416,19 +1416,19 @@
         <v>132277</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110973</v>
+        <v>111054</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157215</v>
+        <v>155417</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0391443658550934</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03283994364509102</v>
+        <v>0.03286401063679439</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04652445278689873</v>
+        <v>0.04599224909638291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>202</v>
@@ -1437,19 +1437,19 @@
         <v>210489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>183199</v>
+        <v>182251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>241031</v>
+        <v>242857</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03163006843644426</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02752913238249925</v>
+        <v>0.02738666494807595</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03621949897416051</v>
+        <v>0.03649390115597236</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3197312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3174490</v>
+        <v>3174712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3212473</v>
+        <v>3213108</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9761220605920385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9691546833984983</v>
+        <v>0.9692224331663674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9807504360174885</v>
+        <v>0.9809445794181533</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3169</v>
@@ -1487,19 +1487,19 @@
         <v>3246920</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3221982</v>
+        <v>3223780</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3268224</v>
+        <v>3268143</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9608556341449066</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9534755472131013</v>
+        <v>0.9540077509036172</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.967160056354909</v>
+        <v>0.9671359893632057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6308</v>
@@ -1508,19 +1508,19 @@
         <v>6444233</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6413691</v>
+        <v>6411865</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6471523</v>
+        <v>6472471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9683699315635558</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9637805010258395</v>
+        <v>0.9635060988440276</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9724708676175008</v>
+        <v>0.972613335051924</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>26445</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16558</v>
+        <v>16692</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39734</v>
+        <v>40029</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02721174275369081</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01703832295718601</v>
+        <v>0.01717548397663623</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04088561119050067</v>
+        <v>0.04118854534752451</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -1872,19 +1872,19 @@
         <v>59389</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44824</v>
+        <v>44896</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75373</v>
+        <v>75740</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04456660430248551</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03363695209706481</v>
+        <v>0.03369050817559566</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05656103130071904</v>
+        <v>0.05683653385343627</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -1893,19 +1893,19 @@
         <v>85834</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69094</v>
+        <v>66660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106277</v>
+        <v>105410</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03724760863260695</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02998316354030219</v>
+        <v>0.02892681745008847</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04611877834894054</v>
+        <v>0.04574227665672338</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>945392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>932103</v>
+        <v>931808</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>955279</v>
+        <v>955145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9727882572463092</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9591143888094995</v>
+        <v>0.9588114546524757</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.982961677042814</v>
+        <v>0.9828245160233638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1186</v>
@@ -1943,19 +1943,19 @@
         <v>1273202</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1257218</v>
+        <v>1256851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1287767</v>
+        <v>1287695</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9554333956975145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.943438968699281</v>
+        <v>0.9431634661465638</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9663630479029357</v>
+        <v>0.9663094918244042</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2069</v>
@@ -1964,19 +1964,19 @@
         <v>2218594</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2198151</v>
+        <v>2199018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2235334</v>
+        <v>2237768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.962752391367393</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9538812216510597</v>
+        <v>0.9542577233432764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9700168364596978</v>
+        <v>0.9710731825499114</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>65273</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49465</v>
+        <v>49776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81910</v>
+        <v>83237</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03330237849076048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02523717442762366</v>
+        <v>0.02539558640415755</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04179047775862803</v>
+        <v>0.04246748749266752</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>97</v>
@@ -2089,19 +2089,19 @@
         <v>102884</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83673</v>
+        <v>83830</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122849</v>
+        <v>122999</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05876538073552624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04779221149369419</v>
+        <v>0.04788172932632814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07016882945802877</v>
+        <v>0.07025456191530045</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>158</v>
@@ -2110,19 +2110,19 @@
         <v>168158</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143911</v>
+        <v>142417</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>196340</v>
+        <v>197349</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04531591897885646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0387817068411273</v>
+        <v>0.03837911248486396</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05291054098659749</v>
+        <v>0.05318269357264799</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1894749</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1878112</v>
+        <v>1876785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1910557</v>
+        <v>1910246</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9666976215092395</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.958209522241372</v>
+        <v>0.9575325125073325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9747628255723763</v>
+        <v>0.9746044135958425</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1532</v>
@@ -2160,19 +2160,19 @@
         <v>1647878</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1627913</v>
+        <v>1627763</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1667089</v>
+        <v>1666932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9412346192644737</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9298311705419711</v>
+        <v>0.9297454380846994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9522077885063057</v>
+        <v>0.9521182706736717</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3323</v>
@@ -2181,19 +2181,19 @@
         <v>3542626</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3514444</v>
+        <v>3513435</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3566873</v>
+        <v>3568367</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9546840810211435</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9470894590134024</v>
+        <v>0.9468173064273521</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9612182931588727</v>
+        <v>0.9616208875151361</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>24891</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14676</v>
+        <v>16391</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36171</v>
+        <v>38518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05181992977711555</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03055464106651033</v>
+        <v>0.03412414964830137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07530473360448871</v>
+        <v>0.0801911632055904</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -2306,19 +2306,19 @@
         <v>32933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22814</v>
+        <v>22220</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44811</v>
+        <v>46116</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0719595803774921</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04984967323193507</v>
+        <v>0.04855293033545201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09791461495173795</v>
+        <v>0.1007669640776879</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -2327,19 +2327,19 @@
         <v>57823</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44475</v>
+        <v>42704</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76016</v>
+        <v>75116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06164629795153136</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04741529209478299</v>
+        <v>0.04552763530019614</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08104169636207785</v>
+        <v>0.08008175128384044</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>455441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>444161</v>
+        <v>441814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465656</v>
+        <v>463941</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9481800702228844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9246952663955113</v>
+        <v>0.9198088367944098</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9694453589334896</v>
+        <v>0.9658758503516988</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>381</v>
@@ -2377,19 +2377,19 @@
         <v>424721</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>412843</v>
+        <v>411538</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>434840</v>
+        <v>435434</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9280404196225079</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9020853850482621</v>
+        <v>0.8992330359223123</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9501503267680649</v>
+        <v>0.9514470696645483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>797</v>
@@ -2398,19 +2398,19 @@
         <v>880163</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>861970</v>
+        <v>862870</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>893511</v>
+        <v>895282</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9383537020484687</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9189583036379222</v>
+        <v>0.9199182487161597</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9525847079052171</v>
+        <v>0.9544723646998039</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>116610</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95985</v>
+        <v>93745</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139984</v>
+        <v>139234</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03417438886737911</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02812988900041335</v>
+        <v>0.02747356446112817</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04102455620978692</v>
+        <v>0.04080474489066057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>183</v>
@@ -2523,19 +2523,19 @@
         <v>195206</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>169522</v>
+        <v>168441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>227053</v>
+        <v>222548</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0551272136415062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04787391780995779</v>
+        <v>0.04756855318600903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06412104182235923</v>
+        <v>0.06284880239035512</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>288</v>
@@ -2544,19 +2544,19 @@
         <v>311815</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>279079</v>
+        <v>276842</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>354571</v>
+        <v>345967</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04484488870187277</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0401367955434976</v>
+        <v>0.03981509244248491</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05099393735817956</v>
+        <v>0.04975646605113036</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3295581</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3272207</v>
+        <v>3272957</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3316206</v>
+        <v>3318446</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9658256111326209</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9589754437902138</v>
+        <v>0.9591952551093396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9718701109995866</v>
+        <v>0.9725264355388719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3099</v>
@@ -2594,19 +2594,19 @@
         <v>3345801</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3313954</v>
+        <v>3318459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3371485</v>
+        <v>3372566</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9448727863584938</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9358789581776408</v>
+        <v>0.9371511976096448</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9521260821900421</v>
+        <v>0.9524314468139909</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6189</v>
@@ -2615,19 +2615,19 @@
         <v>6641383</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6598627</v>
+        <v>6607231</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6674119</v>
+        <v>6676356</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9551551112981272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9490060626418201</v>
+        <v>0.9502435339488697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9598632044565024</v>
+        <v>0.9601849075575151</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>20088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13101</v>
+        <v>13049</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31061</v>
+        <v>29871</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02662911278093656</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01736719787247187</v>
+        <v>0.01729821565160514</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04117633624463881</v>
+        <v>0.03959808045651737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -2979,19 +2979,19 @@
         <v>39832</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28019</v>
+        <v>28622</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53984</v>
+        <v>55124</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04004594021088272</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02816986360235535</v>
+        <v>0.02877596681351203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05427380597352649</v>
+        <v>0.05542026773927997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -3000,19 +3000,19 @@
         <v>59920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44827</v>
+        <v>45731</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77649</v>
+        <v>76009</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03425926192647324</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02562991461775459</v>
+        <v>0.02614686550954038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04439623916471808</v>
+        <v>0.04345845695685266</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>734259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>723286</v>
+        <v>724476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>741246</v>
+        <v>741298</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9733708872190634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9588236637553615</v>
+        <v>0.9604019195434822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9826328021275283</v>
+        <v>0.9827017843483947</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>857</v>
@@ -3050,19 +3050,19 @@
         <v>954828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>940676</v>
+        <v>939536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>966641</v>
+        <v>966038</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9599540597891173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9457261940264735</v>
+        <v>0.94457973226072</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9718301363976447</v>
+        <v>0.971224033186488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1598</v>
@@ -3071,19 +3071,19 @@
         <v>1689087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1671358</v>
+        <v>1672998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1704180</v>
+        <v>1703276</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9657407380735268</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9556037608352819</v>
+        <v>0.9565415430431473</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9743700853822451</v>
+        <v>0.9738531344904596</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>59387</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43457</v>
+        <v>44683</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75798</v>
+        <v>75810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02860097267259575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02092907418772598</v>
+        <v>0.02151956343178634</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0365047997962407</v>
+        <v>0.03651058596389004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -3196,19 +3196,19 @@
         <v>110922</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92322</v>
+        <v>91389</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>134597</v>
+        <v>131266</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05578736850288221</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04643266151658536</v>
+        <v>0.0459631644778987</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06769443933239039</v>
+        <v>0.06601932372889548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -3217,19 +3217,19 @@
         <v>170309</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>144026</v>
+        <v>145068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199304</v>
+        <v>196984</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04189959536740027</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03543347471414551</v>
+        <v>0.03568997317030871</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04903311756938104</v>
+        <v>0.04846241573601203</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2016998</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2000587</v>
+        <v>2000575</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2032928</v>
+        <v>2031702</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9713990273274042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9634952002037593</v>
+        <v>0.96348941403611</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9790709258122741</v>
+        <v>0.9784804365682139</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1802</v>
@@ -3267,19 +3267,19 @@
         <v>1877378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1853703</v>
+        <v>1857034</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1895978</v>
+        <v>1896911</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9442126314971178</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9323055606676095</v>
+        <v>0.9339806762711046</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9535673384834146</v>
+        <v>0.9540368355221013</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3698</v>
@@ -3288,19 +3288,19 @@
         <v>3894376</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3865381</v>
+        <v>3867701</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3920659</v>
+        <v>3919617</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9581004046325997</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9509668824306188</v>
+        <v>0.9515375842639877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9645665252858544</v>
+        <v>0.9643100268296912</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>24762</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15392</v>
+        <v>16128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35603</v>
+        <v>37969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0452776328211173</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0281456796430466</v>
+        <v>0.02949088650556266</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06510076009139361</v>
+        <v>0.0694267892161002</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3413,19 +3413,19 @@
         <v>38678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27579</v>
+        <v>26971</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52238</v>
+        <v>53088</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07043334322577394</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05022178406991347</v>
+        <v>0.04911406953670508</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0951262976687717</v>
+        <v>0.09667491362421658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -3434,19 +3434,19 @@
         <v>63440</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49300</v>
+        <v>47893</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80946</v>
+        <v>80236</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05788135627121382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04498048063706005</v>
+        <v>0.04369727536958213</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07385390550036507</v>
+        <v>0.07320606783820056</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>522124</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511283</v>
+        <v>508917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>531494</v>
+        <v>530758</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9547223671788827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9348992399086063</v>
+        <v>0.9305732107838999</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9718543203569534</v>
+        <v>0.9705091134944374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>491</v>
@@ -3484,19 +3484,19 @@
         <v>510462</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>496902</v>
+        <v>496052</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>521561</v>
+        <v>522169</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9295666567742261</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9048737023312282</v>
+        <v>0.9033250863757836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9497782159300865</v>
+        <v>0.9508859304632949</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>969</v>
@@ -3505,19 +3505,19 @@
         <v>1032587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1015081</v>
+        <v>1015791</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1046727</v>
+        <v>1048134</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9421186437287862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.926146094499635</v>
+        <v>0.9267939321617995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9550195193629401</v>
+        <v>0.956302724630418</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>104236</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85782</v>
+        <v>84846</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124608</v>
+        <v>127176</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03086078119699471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02539719729164237</v>
+        <v>0.02511995717358204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03689228650021811</v>
+        <v>0.03765254826813364</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>176</v>
@@ -3630,19 +3630,19 @@
         <v>189432</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>165130</v>
+        <v>161989</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>218459</v>
+        <v>220853</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05363151939507731</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04675115858645416</v>
+        <v>0.04586199416354769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06184954107401436</v>
+        <v>0.06252726549403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>276</v>
@@ -3651,19 +3651,19 @@
         <v>293668</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>261001</v>
+        <v>258503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>333138</v>
+        <v>328135</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04250069640034858</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03777305213098592</v>
+        <v>0.03741149844986229</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04821300470687196</v>
+        <v>0.04748888947763108</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3273382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3253010</v>
+        <v>3250442</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3291836</v>
+        <v>3292772</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9691392188030052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9631077134997819</v>
+        <v>0.9623474517318664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9746028027083576</v>
+        <v>0.9748800428264179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3150</v>
@@ -3701,19 +3701,19 @@
         <v>3342668</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3313641</v>
+        <v>3311247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3366970</v>
+        <v>3370111</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9463684806049227</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9381504589259857</v>
+        <v>0.93747273450597</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9532488414135458</v>
+        <v>0.9541380058364524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6265</v>
@@ -3722,19 +3722,19 @@
         <v>6616050</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6576580</v>
+        <v>6581583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6648717</v>
+        <v>6651215</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9574993035996514</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.951786995293128</v>
+        <v>0.9525111105223689</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9622269478690141</v>
+        <v>0.9625885015501378</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>9460</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4841</v>
+        <v>4642</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18220</v>
+        <v>17498</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01639312931813362</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008389223911751637</v>
+        <v>0.00804451986198983</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03157490708482788</v>
+        <v>0.0303236257307017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -4086,19 +4086,19 @@
         <v>30664</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22813</v>
+        <v>22954</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40858</v>
+        <v>40292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03740438635403159</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0278274407206267</v>
+        <v>0.02800053521595694</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04984040275740102</v>
+        <v>0.04914997972504856</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -4107,19 +4107,19 @@
         <v>40123</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30471</v>
+        <v>31024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52288</v>
+        <v>51637</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02872439864920696</v>
+        <v>0.02872439864920695</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02181446121335793</v>
+        <v>0.02221010941284682</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03743362870944827</v>
+        <v>0.03696705045554112</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>567587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>558827</v>
+        <v>559549</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>572206</v>
+        <v>572405</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9836068706818665</v>
+        <v>0.9836068706818663</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9684250929151723</v>
+        <v>0.9696763742692983</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9916107760882482</v>
+        <v>0.9919554801380103</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1374</v>
@@ -4157,19 +4157,19 @@
         <v>789121</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>778927</v>
+        <v>779493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>796972</v>
+        <v>796831</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9625956136459685</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9501595972425989</v>
+        <v>0.9508500202749515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9721725592793732</v>
+        <v>0.971999464784043</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2053</v>
@@ -4178,19 +4178,19 @@
         <v>1356709</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1344544</v>
+        <v>1345195</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1366361</v>
+        <v>1365808</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9712756013507932</v>
+        <v>0.9712756013507929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9625663712905516</v>
+        <v>0.9630329495444586</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9781855387866419</v>
+        <v>0.977789890587153</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>86865</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66631</v>
+        <v>68136</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108738</v>
+        <v>109943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03894286095119702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02987193072297985</v>
+        <v>0.03054651867533416</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04874901055579738</v>
+        <v>0.04928936420291181</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -4303,19 +4303,19 @@
         <v>110533</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>94639</v>
+        <v>92590</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>133675</v>
+        <v>129984</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05092014239538278</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04359835686615248</v>
+        <v>0.04265435281306871</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06158141565900102</v>
+        <v>0.05988078005325541</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>217</v>
@@ -4324,19 +4324,19 @@
         <v>197397</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>171733</v>
+        <v>169647</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>226708</v>
+        <v>227166</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04485005374100778</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03901893474258725</v>
+        <v>0.03854499100422361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05150954912095271</v>
+        <v>0.05161379248379414</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2143701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2121828</v>
+        <v>2120623</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2163935</v>
+        <v>2162430</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9610571390488032</v>
+        <v>0.961057139048803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9512509894442028</v>
+        <v>0.9507106357970883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9701280692770202</v>
+        <v>0.969453481324666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2777</v>
@@ -4374,19 +4374,19 @@
         <v>2060174</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2037032</v>
+        <v>2040723</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2076068</v>
+        <v>2078117</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9490798576046171</v>
+        <v>0.9490798576046172</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9384185843409989</v>
+        <v>0.9401192199467445</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9564016431338475</v>
+        <v>0.957345647186931</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4695</v>
@@ -4395,19 +4395,19 @@
         <v>4203877</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4174566</v>
+        <v>4174108</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4229541</v>
+        <v>4231627</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9551499462589922</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9484904508790479</v>
+        <v>0.9483862075162059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9609810652574129</v>
+        <v>0.9614550089957764</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>21340</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13309</v>
+        <v>13081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35182</v>
+        <v>34397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02998956822169306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01870323284304462</v>
+        <v>0.01838320656020528</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04944212747785095</v>
+        <v>0.04833792809567627</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -4520,19 +4520,19 @@
         <v>43725</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32442</v>
+        <v>32307</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57069</v>
+        <v>57810</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05949999033124762</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04414582945358492</v>
+        <v>0.04396253420401279</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07765751028851742</v>
+        <v>0.07866558456522581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -4541,19 +4541,19 @@
         <v>65065</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49133</v>
+        <v>49537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81839</v>
+        <v>82934</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04498236035502767</v>
+        <v>0.04498236035502766</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03396787606493992</v>
+        <v>0.03424706239828539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05657860285836325</v>
+        <v>0.05733542564334162</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>690247</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>676405</v>
+        <v>677190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>698278</v>
+        <v>698506</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9700104317783069</v>
+        <v>0.9700104317783067</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.950557872522149</v>
+        <v>0.9516620719043236</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9812967671569552</v>
+        <v>0.9816167934397947</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>951</v>
@@ -4591,19 +4591,19 @@
         <v>691152</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>677808</v>
+        <v>677067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>702435</v>
+        <v>702570</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9405000096687524</v>
+        <v>0.9405000096687521</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9223424897114827</v>
+        <v>0.9213344154347743</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9558541705464152</v>
+        <v>0.9560374657959873</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1614</v>
@@ -4612,19 +4612,19 @@
         <v>1381399</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1364625</v>
+        <v>1363530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1397331</v>
+        <v>1396927</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9550176396449724</v>
+        <v>0.9550176396449723</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9434213971416366</v>
+        <v>0.9426645743566584</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.96603212393506</v>
+        <v>0.9657529376017148</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>117664</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95553</v>
+        <v>97936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143006</v>
+        <v>143055</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03343499013679849</v>
+        <v>0.0334349901367985</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02715203413554409</v>
+        <v>0.0278289665216118</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04063595252035267</v>
+        <v>0.04064992077506409</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>245</v>
@@ -4737,19 +4737,19 @@
         <v>184921</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>159998</v>
+        <v>162204</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>209038</v>
+        <v>210114</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04963842386788497</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04294828309116283</v>
+        <v>0.0435404534004489</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.056112134984256</v>
+        <v>0.05640096514824873</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>347</v>
@@ -4758,19 +4758,19 @@
         <v>302586</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>271067</v>
+        <v>273085</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>335848</v>
+        <v>338020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0417672689767396</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03741661881233149</v>
+        <v>0.0376951829183903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04635862205065571</v>
+        <v>0.04665840943219712</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3401536</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3376194</v>
+        <v>3376145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3423647</v>
+        <v>3421264</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9665650098632014</v>
+        <v>0.9665650098632016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9593640474796472</v>
+        <v>0.9593500792249359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.972847965864456</v>
+        <v>0.9721710334783882</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5102</v>
@@ -4808,19 +4808,19 @@
         <v>3540448</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3516331</v>
+        <v>3515255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3565371</v>
+        <v>3563165</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.950361576132115</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9438878650157442</v>
+        <v>0.9435990348517511</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9570517169088372</v>
+        <v>0.9564595465995511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8362</v>
@@ -4829,19 +4829,19 @@
         <v>6941984</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6908722</v>
+        <v>6906550</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6973503</v>
+        <v>6971485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9582327310232603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9536413779493442</v>
+        <v>0.953341590567803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9625833811876678</v>
+        <v>0.9623048170816096</v>
       </c>
     </row>
     <row r="15">
